--- a/jewelleryList.xlsx
+++ b/jewelleryList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Category</t>
   </si>
@@ -110,6 +110,33 @@
   </si>
   <si>
     <t>Product Price</t>
+  </si>
+  <si>
+    <t>Rings</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Gold &amp; Diamond</t>
+  </si>
+  <si>
+    <t>SGL</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -464,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +627,62 @@
       <c r="AMI1" s="2"/>
       <c r="AMJ1" s="2"/>
     </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>0.33</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1200</v>
+      </c>
+      <c r="S2">
+        <v>25001</v>
+      </c>
+      <c r="Z2">
+        <v>45214</v>
+      </c>
+      <c r="AC2">
+        <v>22</v>
+      </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <v>24</v>
+      </c>
+      <c r="AF2">
+        <v>95877</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">

--- a/jewelleryList.xlsx
+++ b/jewelleryList.xlsx
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
